--- a/medicine/Enfance/Arno_Strobel/Arno_Strobel.xlsx
+++ b/medicine/Enfance/Arno_Strobel/Arno_Strobel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arno Strobel, né le 18 août 1962 à Sarrelouis en Allemagne, est un écrivain allemand, auteur de roman policier et littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études en génie électrique. Après plusieurs années à occuper un emploi de consultant en gestion informatique en Allemagne, il déménage au Luxembourg, où il travaille encore en 2014 à la mise en œuvre de projets informatiques dans une grande banque allemande. En février 2014, il abandonne son poste et devient rédacteur pigiste.
 En parallèle à ses activités en informatique, il amorce une tardive carrière d'écrivain alors qu'il a près de 40 ans.
@@ -547,11 +561,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Trilogie Max Bischoff
-Im Kopf des Mörders – Tiefe Narbe (2017)
-Autres romans
-Magus (2007)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Trilogie Max Bischoff</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Im Kopf des Mörders – Tiefe Narbe (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arno_Strobel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arno_Strobel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Magus (2007)
 Castello Cristo (2009)
 Der Trakt (2010)
 Das Wesen (2010)
@@ -560,15 +620,121 @@
 Das Rachespiel (2014)
 Das Dorf (2014)
 Die Flut (2016)
-You are Wanted (2017)
-Romans en collaboration avec Ursula Poznanski
-Fremd (2015)
-Anonym (2016)
-Littérature d'enfance et de jeunesse
-Abgründig (2014)
-Schlusstakt (2015)
-Nouvelles
-Mach's gut, Edda
+You are Wanted (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arno_Strobel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arno_Strobel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans en collaboration avec Ursula Poznanski</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fremd (2015)
+Anonym (2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arno_Strobel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arno_Strobel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Abgründig (2014)
+Schlusstakt (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arno_Strobel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arno_Strobel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mach's gut, Edda
 Der Nachtmaler
 Hochzeitstag
 Manu
